--- a/ProtocoleDeTest.xlsx
+++ b/ProtocoleDeTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Loris\Desktop\Summer School\SummerSchool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FBFFCD-4E06-4572-B69C-7B4AE77E7490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53D6119-2C06-4E54-AE07-7E45B511CADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>Test ID</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Loris coupe ces deux pistes, et soude un fil sur les deux pistes afin des les inversé à nouveau.</t>
+  </si>
+  <si>
+    <t>Software 02</t>
+  </si>
+  <si>
+    <t>Software 03</t>
   </si>
 </sst>
 </file>
@@ -605,150 +611,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C28"/>
+  <dimension ref="B1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.77734375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="58" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="2:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="2:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="E13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="2:6" ht="72" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="2:3" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>0</v>
       </c>
@@ -756,7 +832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
@@ -764,7 +840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>2</v>
       </c>
@@ -772,7 +848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>3</v>
       </c>
@@ -780,7 +856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
@@ -788,7 +864,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
@@ -796,7 +872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>6</v>
       </c>
@@ -804,7 +880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
         <v>7</v>
       </c>
@@ -812,7 +888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ProtocoleDeTest.xlsx
+++ b/ProtocoleDeTest.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Loris\Desktop\Summer School\SummerSchool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebastie.metral\Desktop\SummerSchool\SummerSchool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53D6119-2C06-4E54-AE07-7E45B511CADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="69">
   <si>
     <t>Test ID</t>
   </si>
@@ -130,12 +129,123 @@
   </si>
   <si>
     <t>Software 03</t>
+  </si>
+  <si>
+    <t>Hardware 03</t>
+  </si>
+  <si>
+    <t>Ce test permet de vérifier la protection contre l'inversion de polarité</t>
+  </si>
+  <si>
+    <t>Smoke test</t>
+  </si>
+  <si>
+    <t>On inverse la polarité de l'alimentation afin de voir si notre protection fonctionne correctement</t>
+  </si>
+  <si>
+    <t>Pas d'échauffement de composant. Pas de courant</t>
+  </si>
+  <si>
+    <t>La protection d'alimentation fonctionne correctement</t>
+  </si>
+  <si>
+    <t>Test du Menu Welcome</t>
+  </si>
+  <si>
+    <t>Les boutons sont bel et bien operationnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verification que les boutons du menu fonctionne bien et nous permette d'accéder aux autres menu du jeu. </t>
+  </si>
+  <si>
+    <t>Le test est reussi</t>
+  </si>
+  <si>
+    <t>Test du menu parametre</t>
+  </si>
+  <si>
+    <t>La limunosite va de 0 à 100%. Le niveau de difficulté va de 1 à 3</t>
+  </si>
+  <si>
+    <t>Le test est réussi</t>
+  </si>
+  <si>
+    <t>Software 04</t>
+  </si>
+  <si>
+    <t>Software 05</t>
+  </si>
+  <si>
+    <t>Software 06</t>
+  </si>
+  <si>
+    <t>Test du sleep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn </t>
+  </si>
+  <si>
+    <t>On vérifie que l'appereil s'éteint belle et bien après 30sec ou à la pression du bouton "turn off"</t>
+  </si>
+  <si>
+    <t>L'appareil s'éteint correctement</t>
+  </si>
+  <si>
+    <t>Une mesure du temps a été effectué par un chronomètre et nous respectons belle et bien les 30 sec</t>
+  </si>
+  <si>
+    <t>Test du menu 1 player</t>
+  </si>
+  <si>
+    <t>Test du menu endgame</t>
+  </si>
+  <si>
+    <t>Verifie que les deux boutons de ce menu fonctionne correctement (turn off et new game)</t>
+  </si>
+  <si>
+    <t>Les boutons fonctionnent correctement</t>
+  </si>
+  <si>
+    <t>Test augmentation vitesse avec niveau de difficulté</t>
+  </si>
+  <si>
+    <t>Verifie que la vitesse de la balle augmentent en fonction du niveau de difficulté</t>
+  </si>
+  <si>
+    <t>On remarque bien qu'il y a 3 vitesse de balle différente en fonction d'un des 3 niveau de difficulté choisi</t>
+  </si>
+  <si>
+    <t>Software 07</t>
+  </si>
+  <si>
+    <t>Software 08</t>
+  </si>
+  <si>
+    <t>Test mode sleep en jeu</t>
+  </si>
+  <si>
+    <t>Verifie que pendant la partie, l'appareil ne peut pas s'éteindre</t>
+  </si>
+  <si>
+    <t>L'appareil ne s'éteint pas en mode jeu</t>
+  </si>
+  <si>
+    <t>Verifier que les paramètre de luminosité et de niveau de difficulté sont bien modifié en fonction des slidebar. Vérifie également le bouton retour au menu.</t>
+  </si>
+  <si>
+    <t>verifie que le jeu fonctionne correctement (score, rebond de la balle contre les mur ou les paddle et défaite d'un des joueurs). Vérifie que le bouton de retour au menu fonctionne.</t>
+  </si>
+  <si>
+    <t>Le jeu fonctionne correctement et est bien fluide. Nous sommes plutôt satisfait du résultat obtenue. Le bouton retour au menu fonctionne également</t>
+  </si>
+  <si>
+    <t>Récapitulation des tests</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -610,23 +720,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="58" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="45.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -637,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -650,9 +762,11 @@
       <c r="E3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -662,9 +776,11 @@
       <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="2:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -674,9 +790,11 @@
       <c r="E5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
@@ -686,9 +804,11 @@
       <c r="E6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="2:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -698,9 +818,11 @@
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
@@ -710,9 +832,11 @@
       <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
@@ -722,10 +846,12 @@
       <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>0</v>
       </c>
@@ -736,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
@@ -749,9 +875,11 @@
       <c r="E12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F12" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
@@ -761,9 +889,11 @@
       <c r="E13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="2:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="F13" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
@@ -773,9 +903,11 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
@@ -785,9 +917,11 @@
       <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F15" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
@@ -797,9 +931,11 @@
       <c r="E16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
@@ -809,9 +945,11 @@
       <c r="E17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>7</v>
       </c>
@@ -823,72 +961,444 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="2:6" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="2:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="C27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="2:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="5:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E39" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="5:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="5:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E48" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E49" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="5:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="5:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E57" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E58" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E61" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E62" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="5:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="5:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="5:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
